--- a/策划文档/数值用表/MAGIC_point_prop.xlsx
+++ b/策划文档/数值用表/MAGIC_point_prop.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
